--- a/IncomeBook.xlsx
+++ b/IncomeBook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\SQL\IndividualEntrepreneur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\IEAccountingUSDIncome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B151BE-F28E-4C66-933E-7AA7B7B27F82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FC5805-95A9-4FE6-9C52-9B189B93AF43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-900" windowWidth="23256" windowHeight="12576" xr2:uid="{9E08904F-557F-409F-9484-E47213421A37}"/>
+    <workbookView xWindow="-15828" yWindow="8700" windowWidth="13620" windowHeight="8088" xr2:uid="{9E08904F-557F-409F-9484-E47213421A37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -135,6 +135,9 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.0000"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
@@ -153,9 +156,6 @@
         </top>
       </border>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.0000"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -170,14 +170,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6755276A-E1E4-4419-A803-5A3A7B2C9EFE}" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6755276A-E1E4-4419-A803-5A3A7B2C9EFE}" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0" tableBorderDxfId="5">
   <autoFilter ref="A1:E36" xr:uid="{7113084D-8452-4777-9280-45EC7271BDC0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A65B2ECB-1680-4E0D-89FF-6799CB92F747}" name="Date" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{A661F299-FFF9-4975-BCFC-8AA64CBC5708}" name="IncomeUsd" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{7035DFE7-E8D1-4003-8862-9E10640CE30E}" name="ExchangeData" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{8D055E73-11CC-4CAF-AA0E-91B1C032E379}" name="ExchangeValue" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{736A1AC3-4C1A-4A25-8135-6E14A82512CE}" name="ExchangeRate" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{A65B2ECB-1680-4E0D-89FF-6799CB92F747}" name="Date" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{A661F299-FFF9-4975-BCFC-8AA64CBC5708}" name="IncomeUsd" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{7035DFE7-E8D1-4003-8862-9E10640CE30E}" name="ExchangeData" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{8D055E73-11CC-4CAF-AA0E-91B1C032E379}" name="ExchangeValue" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{736A1AC3-4C1A-4A25-8135-6E14A82512CE}" name="ExchangeRate" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -483,19 +483,19 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.53515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.69140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.07421875" style="2" customWidth="1"/>
     <col min="5" max="5" width="14" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -512,7 +512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>43466</v>
       </c>
@@ -527,7 +527,7 @@
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>43467</v>
       </c>
@@ -536,7 +536,7 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>43499</v>
       </c>
@@ -551,7 +551,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>43500</v>
       </c>
@@ -566,12 +566,12 @@
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>43529</v>
       </c>
       <c r="B6" s="2">
-        <v>2222</v>
+        <v>4222</v>
       </c>
       <c r="C6" s="1">
         <v>43557</v>
@@ -581,7 +581,7 @@
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>43561</v>
       </c>
@@ -596,7 +596,7 @@
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>43592</v>
       </c>
@@ -611,7 +611,7 @@
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>43623</v>
       </c>
@@ -621,7 +621,7 @@
       <c r="C9"/>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>43655</v>
       </c>
@@ -631,7 +631,7 @@
       <c r="C10"/>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>43656</v>
       </c>
@@ -641,7 +641,7 @@
       <c r="C11"/>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>43688</v>
       </c>
@@ -651,7 +651,7 @@
       <c r="C12"/>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>43720</v>
       </c>
@@ -666,7 +666,7 @@
       </c>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>43751</v>
       </c>
@@ -676,7 +676,7 @@
       <c r="C14"/>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>43783</v>
       </c>
@@ -686,7 +686,7 @@
       <c r="C15"/>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>43814</v>
       </c>
@@ -701,7 +701,7 @@
       </c>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>43846</v>
       </c>
@@ -711,7 +711,7 @@
       <c r="C17"/>
       <c r="E17"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>43878</v>
       </c>
@@ -726,7 +726,7 @@
       </c>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>43908</v>
       </c>
@@ -736,7 +736,7 @@
       <c r="C19"/>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>43940</v>
       </c>
@@ -751,7 +751,7 @@
       </c>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>43941</v>
       </c>
@@ -761,7 +761,7 @@
       <c r="C21"/>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>44003</v>
       </c>
@@ -771,7 +771,7 @@
       <c r="C22"/>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>44004</v>
       </c>
@@ -786,7 +786,7 @@
       </c>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>44035</v>
       </c>
@@ -796,7 +796,7 @@
       <c r="C24"/>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>44036</v>
       </c>
@@ -811,7 +811,7 @@
       </c>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>44068</v>
       </c>
@@ -821,7 +821,7 @@
       <c r="C26"/>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>44069</v>
       </c>
@@ -831,7 +831,7 @@
       <c r="C27"/>
       <c r="E27"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>44101</v>
       </c>
@@ -846,7 +846,7 @@
       </c>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>44132</v>
       </c>
@@ -856,7 +856,7 @@
       <c r="C29"/>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>44166</v>
       </c>
@@ -873,7 +873,7 @@
         <v>74.272499999999994</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>44166</v>
       </c>
@@ -883,7 +883,7 @@
       <c r="C31"/>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>44168</v>
       </c>
@@ -898,7 +898,7 @@
       </c>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>44171</v>
       </c>
@@ -908,7 +908,7 @@
       <c r="C33"/>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>44204</v>
       </c>
@@ -918,7 +918,7 @@
       <c r="C34"/>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>44237</v>
       </c>
@@ -928,7 +928,7 @@
       <c r="C35"/>
       <c r="E35"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>44238</v>
       </c>
@@ -962,7 +962,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/IncomeBook.xlsx
+++ b/IncomeBook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\IEAccountingUSDIncome\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\SQL\IEAccountingUSDIncome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FC5805-95A9-4FE6-9C52-9B189B93AF43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1D08DE-DE1A-42BA-A611-0B7301713F11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15828" yWindow="8700" windowWidth="13620" windowHeight="8088" xr2:uid="{9E08904F-557F-409F-9484-E47213421A37}"/>
+    <workbookView xWindow="8263" yWindow="2674" windowWidth="19217" windowHeight="14417" xr2:uid="{9E08904F-557F-409F-9484-E47213421A37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>IncomeUsd</t>
   </si>
   <si>
-    <t>ExchangeData</t>
-  </si>
-  <si>
     <t>ExchangeValue</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>ExchangeDate</t>
   </si>
 </sst>
 </file>
@@ -175,7 +175,7 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A65B2ECB-1680-4E0D-89FF-6799CB92F747}" name="Date" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{A661F299-FFF9-4975-BCFC-8AA64CBC5708}" name="IncomeUsd" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{7035DFE7-E8D1-4003-8862-9E10640CE30E}" name="ExchangeData" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{7035DFE7-E8D1-4003-8862-9E10640CE30E}" name="ExchangeDate" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{8D055E73-11CC-4CAF-AA0E-91B1C032E379}" name="ExchangeValue" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{736A1AC3-4C1A-4A25-8135-6E14A82512CE}" name="ExchangeRate" dataDxfId="0"/>
   </tableColumns>
@@ -483,7 +483,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -497,19 +497,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -571,7 +571,7 @@
         <v>43529</v>
       </c>
       <c r="B6" s="2">
-        <v>4222</v>
+        <v>2222</v>
       </c>
       <c r="C6" s="1">
         <v>43557</v>

--- a/IncomeBook.xlsx
+++ b/IncomeBook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\SQL\IEAccountingUSDIncome\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\IEAccountingUSDIncome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1D08DE-DE1A-42BA-A611-0B7301713F11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAFB104-415E-4402-8D2A-341D342DE1BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8263" yWindow="2674" windowWidth="19217" windowHeight="14417" xr2:uid="{9E08904F-557F-409F-9484-E47213421A37}"/>
+    <workbookView xWindow="2237" yWindow="2366" windowWidth="18617" windowHeight="13345" xr2:uid="{9E08904F-557F-409F-9484-E47213421A37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -483,7 +483,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -541,7 +541,7 @@
         <v>43499</v>
       </c>
       <c r="B4" s="2">
-        <v>222</v>
+        <v>9222</v>
       </c>
       <c r="C4" s="1">
         <v>43502</v>
@@ -571,7 +571,7 @@
         <v>43529</v>
       </c>
       <c r="B6" s="2">
-        <v>2222</v>
+        <v>8222</v>
       </c>
       <c r="C6" s="1">
         <v>43557</v>
@@ -626,7 +626,7 @@
         <v>43655</v>
       </c>
       <c r="B10" s="2">
-        <v>4321</v>
+        <v>6321</v>
       </c>
       <c r="C10"/>
       <c r="E10"/>
@@ -826,7 +826,7 @@
         <v>44069</v>
       </c>
       <c r="B27" s="2">
-        <v>2160</v>
+        <v>4160</v>
       </c>
       <c r="C27"/>
       <c r="E27"/>
@@ -888,7 +888,7 @@
         <v>44168</v>
       </c>
       <c r="B32" s="2">
-        <v>1111</v>
+        <v>5111</v>
       </c>
       <c r="C32" s="1">
         <v>44175</v>
@@ -913,7 +913,7 @@
         <v>44204</v>
       </c>
       <c r="B34" s="2">
-        <v>3333</v>
+        <v>7333</v>
       </c>
       <c r="C34"/>
       <c r="E34"/>

--- a/IncomeBook.xlsx
+++ b/IncomeBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\IEAccountingUSDIncome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAFB104-415E-4402-8D2A-341D342DE1BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B290908C-5D6C-4BDD-AA6D-388626F8540F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2237" yWindow="2366" windowWidth="18617" windowHeight="13345" xr2:uid="{9E08904F-557F-409F-9484-E47213421A37}"/>
+    <workbookView xWindow="1894" yWindow="2023" windowWidth="18617" windowHeight="13346" xr2:uid="{9E08904F-557F-409F-9484-E47213421A37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -170,8 +170,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6755276A-E1E4-4419-A803-5A3A7B2C9EFE}" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0" tableBorderDxfId="5">
-  <autoFilter ref="A1:E36" xr:uid="{7113084D-8452-4777-9280-45EC7271BDC0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6755276A-E1E4-4419-A803-5A3A7B2C9EFE}" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0" tableBorderDxfId="5">
+  <autoFilter ref="A1:E38" xr:uid="{7113084D-8452-4777-9280-45EC7271BDC0}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A65B2ECB-1680-4E0D-89FF-6799CB92F747}" name="Date" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{A661F299-FFF9-4975-BCFC-8AA64CBC5708}" name="IncomeUsd" dataDxfId="3"/>
@@ -480,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD048611-6016-4908-8BAF-8CE9D3D5200D}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -517,123 +517,126 @@
         <v>43466</v>
       </c>
       <c r="B2" s="2">
-        <v>5555</v>
+        <v>4555</v>
       </c>
       <c r="C2" s="1">
         <v>43469</v>
       </c>
       <c r="D2" s="2">
-        <v>1234</v>
+        <v>2234</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
-        <v>43467</v>
+        <v>43466</v>
       </c>
       <c r="B3" s="2">
-        <v>2345</v>
+        <v>1255</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43470</v>
+      </c>
+      <c r="D3" s="2">
+        <v>100</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>43499</v>
+        <v>43466</v>
       </c>
       <c r="B4" s="2">
-        <v>9222</v>
-      </c>
-      <c r="C4" s="1">
-        <v>43502</v>
-      </c>
-      <c r="D4" s="2">
-        <v>222</v>
-      </c>
-      <c r="E4"/>
+        <v>200</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <v>43500</v>
+        <v>43467</v>
       </c>
       <c r="B5" s="2">
-        <v>4321</v>
-      </c>
-      <c r="C5" s="1">
-        <v>43516</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1234</v>
+        <v>2345</v>
       </c>
       <c r="E5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <v>43529</v>
+        <v>43499</v>
       </c>
       <c r="B6" s="2">
-        <v>8222</v>
+        <v>9222</v>
       </c>
       <c r="C6" s="1">
-        <v>43557</v>
+        <v>43502</v>
       </c>
       <c r="D6" s="2">
-        <v>1234</v>
+        <v>222</v>
       </c>
       <c r="E6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <v>43561</v>
+        <v>43500</v>
       </c>
       <c r="B7" s="2">
         <v>4321</v>
       </c>
       <c r="C7" s="1">
-        <v>43567</v>
+        <v>43516</v>
       </c>
       <c r="D7" s="2">
-        <v>2222</v>
+        <v>1234</v>
       </c>
       <c r="E7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <v>43592</v>
+        <v>43529</v>
       </c>
       <c r="B8" s="2">
-        <v>4321</v>
+        <v>8222</v>
       </c>
       <c r="C8" s="1">
-        <v>43596</v>
+        <v>43557</v>
       </c>
       <c r="D8" s="2">
-        <v>1111</v>
+        <v>1234</v>
       </c>
       <c r="E8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
-        <v>43623</v>
+        <v>43561</v>
       </c>
       <c r="B9" s="2">
-        <v>1234</v>
-      </c>
-      <c r="C9"/>
+        <v>4321</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43567</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2222</v>
+      </c>
       <c r="E9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
-        <v>43655</v>
+        <v>43592</v>
       </c>
       <c r="B10" s="2">
-        <v>6321</v>
-      </c>
-      <c r="C10"/>
+        <v>4321</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43596</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1111</v>
+      </c>
       <c r="E10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
-        <v>43656</v>
+        <v>43623</v>
       </c>
       <c r="B11" s="2">
         <v>1234</v>
@@ -643,177 +646,172 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
-        <v>43688</v>
+        <v>43655</v>
       </c>
       <c r="B12" s="2">
-        <v>4321</v>
+        <v>6321</v>
       </c>
       <c r="C12"/>
       <c r="E12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
-        <v>43720</v>
+        <v>43656</v>
       </c>
       <c r="B13" s="2">
-        <v>4321</v>
-      </c>
-      <c r="C13" s="1">
-        <v>43740</v>
-      </c>
-      <c r="D13" s="2">
-        <v>4321</v>
-      </c>
+        <v>1234</v>
+      </c>
+      <c r="C13"/>
       <c r="E13"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
-        <v>43751</v>
+        <v>43688</v>
       </c>
       <c r="B14" s="2">
-        <v>1234</v>
+        <v>4321</v>
       </c>
       <c r="C14"/>
       <c r="E14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
-        <v>43783</v>
+        <v>43720</v>
       </c>
       <c r="B15" s="2">
         <v>4321</v>
       </c>
-      <c r="C15"/>
+      <c r="C15" s="1">
+        <v>43740</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4321</v>
+      </c>
       <c r="E15"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
-        <v>43814</v>
+        <v>43751</v>
       </c>
       <c r="B16" s="2">
-        <v>2345</v>
-      </c>
-      <c r="C16" s="1">
-        <v>43823</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2345</v>
-      </c>
+        <v>1234</v>
+      </c>
+      <c r="C16"/>
       <c r="E16"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
-        <v>43846</v>
+        <v>43783</v>
       </c>
       <c r="B17" s="2">
-        <v>3456</v>
+        <v>4321</v>
       </c>
       <c r="C17"/>
       <c r="E17"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
-        <v>43878</v>
+        <v>43814</v>
       </c>
       <c r="B18" s="2">
-        <v>4567</v>
+        <v>2345</v>
       </c>
       <c r="C18" s="1">
-        <v>43888</v>
+        <v>43823</v>
       </c>
       <c r="D18" s="2">
-        <v>4567</v>
+        <v>2345</v>
       </c>
       <c r="E18"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
-        <v>43908</v>
+        <v>43846</v>
       </c>
       <c r="B19" s="2">
-        <v>1234</v>
+        <v>3456</v>
       </c>
       <c r="C19"/>
       <c r="E19"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
-        <v>43940</v>
+        <v>43878</v>
       </c>
       <c r="B20" s="2">
-        <v>123</v>
+        <v>4567</v>
       </c>
       <c r="C20" s="1">
-        <v>43950</v>
+        <v>43888</v>
       </c>
       <c r="D20" s="2">
-        <v>100</v>
+        <v>4567</v>
       </c>
       <c r="E20"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
-        <v>43941</v>
+        <v>43908</v>
       </c>
       <c r="B21" s="2">
-        <v>2345</v>
+        <v>1234</v>
       </c>
       <c r="C21"/>
       <c r="E21"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
-        <v>44003</v>
+        <v>43940</v>
       </c>
       <c r="B22" s="2">
-        <v>4321</v>
-      </c>
-      <c r="C22"/>
+        <v>123</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43950</v>
+      </c>
+      <c r="D22" s="2">
+        <v>100</v>
+      </c>
       <c r="E22"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
-        <v>44004</v>
+        <v>43941</v>
       </c>
       <c r="B23" s="2">
-        <v>5555</v>
-      </c>
-      <c r="C23" s="1">
-        <v>44008</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1234</v>
-      </c>
+        <v>2345</v>
+      </c>
+      <c r="C23"/>
       <c r="E23"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
-        <v>44035</v>
+        <v>44003</v>
       </c>
       <c r="B24" s="2">
-        <v>2345</v>
+        <v>4321</v>
       </c>
       <c r="C24"/>
       <c r="E24"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
-        <v>44036</v>
+        <v>44004</v>
       </c>
       <c r="B25" s="2">
-        <v>456</v>
+        <v>5555</v>
       </c>
       <c r="C25" s="1">
-        <v>44046</v>
+        <v>44008</v>
       </c>
       <c r="D25" s="2">
-        <v>456</v>
+        <v>1234</v>
       </c>
       <c r="E25"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
-        <v>44068</v>
+        <v>44035</v>
       </c>
       <c r="B26" s="2">
         <v>2345</v>
@@ -823,125 +821,150 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
-        <v>44069</v>
+        <v>44036</v>
       </c>
       <c r="B27" s="2">
-        <v>4160</v>
-      </c>
-      <c r="C27"/>
+        <v>456</v>
+      </c>
+      <c r="C27" s="1">
+        <v>44046</v>
+      </c>
+      <c r="D27" s="2">
+        <v>456</v>
+      </c>
       <c r="E27"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
-        <v>44101</v>
+        <v>44068</v>
       </c>
       <c r="B28" s="2">
-        <v>3456</v>
-      </c>
-      <c r="C28" s="1">
-        <v>44102</v>
-      </c>
-      <c r="D28" s="2">
-        <v>3200</v>
-      </c>
+        <v>2345</v>
+      </c>
+      <c r="C28"/>
       <c r="E28"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
-        <v>44132</v>
+        <v>44069</v>
       </c>
       <c r="B29" s="2">
-        <v>4444</v>
+        <v>4160</v>
       </c>
       <c r="C29"/>
       <c r="E29"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
-        <v>44166</v>
+        <v>44101</v>
       </c>
       <c r="B30" s="2">
-        <v>2143</v>
+        <v>3456</v>
       </c>
       <c r="C30" s="1">
-        <v>44169</v>
+        <v>44102</v>
       </c>
       <c r="D30" s="2">
-        <v>2143</v>
-      </c>
-      <c r="E30">
-        <v>74.272499999999994</v>
-      </c>
+        <v>3200</v>
+      </c>
+      <c r="E30"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
-        <v>44166</v>
+        <v>44132</v>
       </c>
       <c r="B31" s="2">
-        <v>300</v>
+        <v>4444</v>
       </c>
       <c r="C31"/>
       <c r="E31"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="B32" s="2">
-        <v>5111</v>
+        <v>2143</v>
       </c>
       <c r="C32" s="1">
-        <v>44175</v>
+        <v>44169</v>
       </c>
       <c r="D32" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E32"/>
+        <v>2143</v>
+      </c>
+      <c r="E32">
+        <v>74.272499999999994</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
-        <v>44171</v>
+        <v>44166</v>
       </c>
       <c r="B33" s="2">
-        <v>2222</v>
+        <v>300</v>
       </c>
       <c r="C33"/>
       <c r="E33"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
-        <v>44204</v>
+        <v>44168</v>
       </c>
       <c r="B34" s="2">
-        <v>7333</v>
-      </c>
-      <c r="C34"/>
+        <v>5111</v>
+      </c>
+      <c r="C34" s="1">
+        <v>44175</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1000</v>
+      </c>
       <c r="E34"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
-        <v>44237</v>
+        <v>44171</v>
       </c>
       <c r="B35" s="2">
-        <v>4444</v>
+        <v>2222</v>
       </c>
       <c r="C35"/>
       <c r="E35"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
+        <v>44204</v>
+      </c>
+      <c r="B36" s="2">
+        <v>7333</v>
+      </c>
+      <c r="C36"/>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
+        <v>44237</v>
+      </c>
+      <c r="B37" s="2">
+        <v>4444</v>
+      </c>
+      <c r="C37"/>
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
         <v>44238</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B38" s="2">
         <v>5555</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C38" s="1">
         <v>44256</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D38" s="2">
         <v>5000</v>
       </c>
-      <c r="E36">
+      <c r="E38">
         <v>74.2303</v>
       </c>
     </row>
